--- a/testing/testing_subset/drugs.xlsx
+++ b/testing/testing_subset/drugs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t xml:space="preserve">plate_batch</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">sc1_ANI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
   </si>
   <si>
     <t xml:space="preserve">ANI</t>
@@ -148,10 +151,10 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.33"/>
@@ -193,7 +196,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0.016</v>
@@ -207,7 +210,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0.031</v>
@@ -221,7 +224,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0.063</v>
@@ -229,13 +232,13 @@
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>2</v>
@@ -243,13 +246,13 @@
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>4</v>
@@ -257,13 +260,13 @@
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>8</v>
@@ -271,13 +274,13 @@
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>16</v>
